--- a/pred_ohlcv/54_21/2020-01-20 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 OMG ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-24055.769</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-25818.7575</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-26419.653</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-28765.7648</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-28730.8357</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-28720.4707</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-27599.4831</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-28252.2528</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-28251.19750240608</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-28725.69750240608</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-28537.69750240608</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-28206.56580240608</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-28210.14810240607</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28236.50810240607</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-28236.50810240607</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-28256.41600240607</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-29174.49670240608</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-29169.2807624937</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-30588.7960624937</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-31853.0516624937</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-23777.6344624937</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-22797.8390624937</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-22797.8390624937</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-22799.3890624937</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-22794.3890624937</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-22795.3890624937</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-22795.3890624937</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-21625.9029624937</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-21653.4834624937</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-23115.1098624937</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-23114.5098624937</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-23114.5098624937</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-23253.6098624937</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-23247.2774624937</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-23247.2774624937</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-31106.9189624937</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-31083.4155624937</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-31083.4155624937</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-31083.4155624937</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-31083.4155624937</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-31083.4155624937</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-31157.2055624937</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-31246.3535624937</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-41008.6140624937</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-25274.17046249371</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-25467.17866249371</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-33882.58876249369</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 OMG ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-26419.653</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-28765.7648</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-28730.8357</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-28720.4707</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-27599.4831</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-28252.2528</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-28251.19750240608</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-28725.69750240608</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-28537.69750240608</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-28535.52700240608</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-28206.56580240608</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-28210.14810240607</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28236.50810240607</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-28236.50810240607</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-28256.41600240607</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-29174.49670240608</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-29169.2807624937</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-30588.7960624937</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-31853.0516624937</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-23777.6344624937</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-23777.6344624937</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-22797.8390624937</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-22797.8390624937</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-22799.3890624937</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-22794.3890624937</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-22795.3890624937</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-22795.3890624937</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-21625.9029624937</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-21653.4834624937</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-23115.1098624937</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-23114.5098624937</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-23114.5098624937</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-23253.6098624937</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-23247.2774624937</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-23247.2774624937</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-27511.3455624937</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-25274.17046249371</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-25467.17866249371</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-25654.16296249371</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-33882.58876249369</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-41622.2038624937</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-41622.2038624937</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
